--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ncam1-Robo3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.87620768006301</v>
+        <v>2.541588333333333</v>
       </c>
       <c r="H2">
-        <v>1.87620768006301</v>
+        <v>7.624765</v>
       </c>
       <c r="I2">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="J2">
-        <v>0.03595211760759241</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.97204743417705</v>
+        <v>3.367566666666667</v>
       </c>
       <c r="N2">
-        <v>2.97204743417705</v>
+        <v>10.1027</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9944910078726888</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9944910078726888</v>
       </c>
       <c r="Q2">
-        <v>5.576178221514545</v>
+        <v>8.558968151722222</v>
       </c>
       <c r="R2">
-        <v>5.576178221514545</v>
+        <v>77.03071336550001</v>
       </c>
       <c r="S2">
-        <v>0.03595211760759241</v>
+        <v>0.04150742246927216</v>
       </c>
       <c r="T2">
-        <v>0.03595211760759241</v>
+        <v>0.04150742246927216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.7140310127191</v>
+        <v>2.541588333333333</v>
       </c>
       <c r="H3">
-        <v>22.7140310127191</v>
+        <v>7.624765</v>
       </c>
       <c r="I3">
-        <v>0.4352489988125159</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="J3">
-        <v>0.4352489988125159</v>
+        <v>0.0417373532195736</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>2.97204743417705</v>
+        <v>0.01387666666666667</v>
       </c>
       <c r="N3">
-        <v>2.97204743417705</v>
+        <v>0.04163</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.004097979813093533</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.004097979813093532</v>
       </c>
       <c r="Q3">
-        <v>67.50717759116975</v>
+        <v>0.03526877410555556</v>
       </c>
       <c r="R3">
-        <v>67.50717759116975</v>
+        <v>0.31741896695</v>
       </c>
       <c r="S3">
-        <v>0.4352489988125159</v>
+        <v>0.000171038830945767</v>
       </c>
       <c r="T3">
-        <v>0.4352489988125159</v>
+        <v>0.000171038830945767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.541588333333333</v>
+      </c>
+      <c r="H4">
+        <v>7.624765</v>
+      </c>
+      <c r="I4">
+        <v>0.0417373532195736</v>
+      </c>
+      <c r="J4">
+        <v>0.0417373532195736</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.004778</v>
+      </c>
+      <c r="N4">
+        <v>0.014334</v>
+      </c>
+      <c r="O4">
+        <v>0.001411012314217696</v>
+      </c>
+      <c r="P4">
+        <v>0.001411012314217696</v>
+      </c>
+      <c r="Q4">
+        <v>0.01214370905666667</v>
+      </c>
+      <c r="R4">
+        <v>0.10929338151</v>
+      </c>
+      <c r="S4">
+        <v>5.889191935567197E-05</v>
+      </c>
+      <c r="T4">
+        <v>5.889191935567196E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>22.91769833333333</v>
+      </c>
+      <c r="H5">
+        <v>68.753095</v>
+      </c>
+      <c r="I5">
+        <v>0.376348938092374</v>
+      </c>
+      <c r="J5">
+        <v>0.376348938092374</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3.367566666666667</v>
+      </c>
+      <c r="N5">
+        <v>10.1027</v>
+      </c>
+      <c r="O5">
+        <v>0.9944910078726888</v>
+      </c>
+      <c r="P5">
+        <v>0.9944910078726888</v>
+      </c>
+      <c r="Q5">
+        <v>77.17687698405557</v>
+      </c>
+      <c r="R5">
+        <v>694.5918928565001</v>
+      </c>
+      <c r="S5">
+        <v>0.3742756347553012</v>
+      </c>
+      <c r="T5">
+        <v>0.3742756347553012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>22.91769833333333</v>
+      </c>
+      <c r="H6">
+        <v>68.753095</v>
+      </c>
+      <c r="I6">
+        <v>0.376348938092374</v>
+      </c>
+      <c r="J6">
+        <v>0.376348938092374</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.01387666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.04163</v>
+      </c>
+      <c r="O6">
+        <v>0.004097979813093533</v>
+      </c>
+      <c r="P6">
+        <v>0.004097979813093532</v>
+      </c>
+      <c r="Q6">
+        <v>0.3180212605388889</v>
+      </c>
+      <c r="R6">
+        <v>2.86219134485</v>
+      </c>
+      <c r="S6">
+        <v>0.001542270350981736</v>
+      </c>
+      <c r="T6">
+        <v>0.001542270350981736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>22.91769833333333</v>
+      </c>
+      <c r="H7">
+        <v>68.753095</v>
+      </c>
+      <c r="I7">
+        <v>0.376348938092374</v>
+      </c>
+      <c r="J7">
+        <v>0.376348938092374</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.004778</v>
+      </c>
+      <c r="N7">
+        <v>0.014334</v>
+      </c>
+      <c r="O7">
+        <v>0.001411012314217696</v>
+      </c>
+      <c r="P7">
+        <v>0.001411012314217696</v>
+      </c>
+      <c r="Q7">
+        <v>0.1095007626366667</v>
+      </c>
+      <c r="R7">
+        <v>0.98550686373</v>
+      </c>
+      <c r="S7">
+        <v>0.0005310329860910932</v>
+      </c>
+      <c r="T7">
+        <v>0.0005310329860910931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04007766666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.120233</v>
+      </c>
+      <c r="I8">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="J8">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.367566666666667</v>
+      </c>
+      <c r="N8">
+        <v>10.1027</v>
+      </c>
+      <c r="O8">
+        <v>0.9944910078726888</v>
+      </c>
+      <c r="P8">
+        <v>0.9944910078726888</v>
+      </c>
+      <c r="Q8">
+        <v>0.1349642143444445</v>
+      </c>
+      <c r="R8">
+        <v>1.2146779291</v>
+      </c>
+      <c r="S8">
+        <v>0.0006545200967830484</v>
+      </c>
+      <c r="T8">
+        <v>0.0006545200967830484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04007766666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.120233</v>
+      </c>
+      <c r="I9">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="J9">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01387666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.04163</v>
+      </c>
+      <c r="O9">
+        <v>0.004097979813093533</v>
+      </c>
+      <c r="P9">
+        <v>0.004097979813093532</v>
+      </c>
+      <c r="Q9">
+        <v>0.0005561444211111112</v>
+      </c>
+      <c r="R9">
+        <v>0.005005299790000001</v>
+      </c>
+      <c r="S9">
+        <v>2.697068271756888E-06</v>
+      </c>
+      <c r="T9">
+        <v>2.697068271756887E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04007766666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.120233</v>
+      </c>
+      <c r="I10">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="J10">
+        <v>0.0006581458169070119</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.004778</v>
+      </c>
+      <c r="N10">
+        <v>0.014334</v>
+      </c>
+      <c r="O10">
+        <v>0.001411012314217696</v>
+      </c>
+      <c r="P10">
+        <v>0.001411012314217696</v>
+      </c>
+      <c r="Q10">
+        <v>0.0001914910913333334</v>
+      </c>
+      <c r="R10">
+        <v>0.001723419822</v>
+      </c>
+      <c r="S10">
+        <v>9.286518522066592E-07</v>
+      </c>
+      <c r="T10">
+        <v>9.286518522066591E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>27.5960525443936</v>
-      </c>
-      <c r="H4">
-        <v>27.5960525443936</v>
-      </c>
-      <c r="I4">
-        <v>0.5287988835798917</v>
-      </c>
-      <c r="J4">
-        <v>0.5287988835798917</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.97204743417705</v>
-      </c>
-      <c r="N4">
-        <v>2.97204743417705</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>82.01677715798006</v>
-      </c>
-      <c r="R4">
-        <v>82.01677715798006</v>
-      </c>
-      <c r="S4">
-        <v>0.5287988835798917</v>
-      </c>
-      <c r="T4">
-        <v>0.5287988835798917</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>35.395449</v>
+      </c>
+      <c r="H11">
+        <v>106.186347</v>
+      </c>
+      <c r="I11">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="J11">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.367566666666667</v>
+      </c>
+      <c r="N11">
+        <v>10.1027</v>
+      </c>
+      <c r="O11">
+        <v>0.9944910078726888</v>
+      </c>
+      <c r="P11">
+        <v>0.9944910078726888</v>
+      </c>
+      <c r="Q11">
+        <v>119.1965342041</v>
+      </c>
+      <c r="R11">
+        <v>1072.7688078369</v>
+      </c>
+      <c r="S11">
+        <v>0.5780534305513325</v>
+      </c>
+      <c r="T11">
+        <v>0.5780534305513325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>35.395449</v>
+      </c>
+      <c r="H12">
+        <v>106.186347</v>
+      </c>
+      <c r="I12">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="J12">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01387666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.04163</v>
+      </c>
+      <c r="O12">
+        <v>0.004097979813093533</v>
+      </c>
+      <c r="P12">
+        <v>0.004097979813093532</v>
+      </c>
+      <c r="Q12">
+        <v>0.49117084729</v>
+      </c>
+      <c r="R12">
+        <v>4.42053762561</v>
+      </c>
+      <c r="S12">
+        <v>0.002381973562894273</v>
+      </c>
+      <c r="T12">
+        <v>0.002381973562894273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>35.395449</v>
+      </c>
+      <c r="H13">
+        <v>106.186347</v>
+      </c>
+      <c r="I13">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="J13">
+        <v>0.5812555628711454</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.004778</v>
+      </c>
+      <c r="N13">
+        <v>0.014334</v>
+      </c>
+      <c r="O13">
+        <v>0.001411012314217696</v>
+      </c>
+      <c r="P13">
+        <v>0.001411012314217696</v>
+      </c>
+      <c r="Q13">
+        <v>0.169119455322</v>
+      </c>
+      <c r="R13">
+        <v>1.522075097898</v>
+      </c>
+      <c r="S13">
+        <v>0.0008201587569187247</v>
+      </c>
+      <c r="T13">
+        <v>0.0008201587569187246</v>
       </c>
     </row>
   </sheetData>
